--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2373.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2373.xlsx
@@ -354,10 +354,10 @@
         <v>1.499736271598643</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.174825511360398</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2373.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2373.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8877078216626868</v>
+        <v>0.9690061211585999</v>
       </c>
       <c r="B1">
-        <v>1.499736271598643</v>
+        <v>1.909066796302795</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.027409076690674</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.793805360794067</v>
       </c>
       <c r="E1">
-        <v>1.174825511360398</v>
+        <v>0.6933905482292175</v>
       </c>
     </row>
   </sheetData>
